--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.663483666666666</v>
+        <v>6.400771666666667</v>
       </c>
       <c r="H2">
-        <v>28.990451</v>
+        <v>19.202315</v>
       </c>
       <c r="I2">
-        <v>0.4172798466714015</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="J2">
-        <v>0.4172798466714016</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N2">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O2">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P2">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q2">
-        <v>178.2413424298944</v>
+        <v>49.00416066225167</v>
       </c>
       <c r="R2">
-        <v>1604.172081869049</v>
+        <v>441.0374459602651</v>
       </c>
       <c r="S2">
-        <v>0.2208647196299089</v>
+        <v>0.1265711879710228</v>
       </c>
       <c r="T2">
-        <v>0.2208647196299089</v>
+        <v>0.1265711879710228</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.663483666666666</v>
+        <v>6.400771666666667</v>
       </c>
       <c r="H3">
-        <v>28.990451</v>
+        <v>19.202315</v>
       </c>
       <c r="I3">
-        <v>0.4172798466714015</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="J3">
-        <v>0.4172798466714016</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>24.086304</v>
       </c>
       <c r="O3">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P3">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q3">
-        <v>77.58586843145599</v>
+        <v>51.39031073264</v>
       </c>
       <c r="R3">
-        <v>698.2728158831039</v>
+        <v>462.51279659376</v>
       </c>
       <c r="S3">
-        <v>0.09613920566771106</v>
+        <v>0.1327342942257706</v>
       </c>
       <c r="T3">
-        <v>0.09613920566771107</v>
+        <v>0.1327342942257706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.663483666666666</v>
+        <v>6.400771666666667</v>
       </c>
       <c r="H4">
-        <v>28.990451</v>
+        <v>19.202315</v>
       </c>
       <c r="I4">
-        <v>0.4172798466714015</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="J4">
-        <v>0.4172798466714016</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N4">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O4">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P4">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q4">
-        <v>80.92426381636099</v>
+        <v>63.23658156653445</v>
       </c>
       <c r="R4">
-        <v>728.318374347249</v>
+        <v>569.12923409881</v>
       </c>
       <c r="S4">
-        <v>0.1002759213737815</v>
+        <v>0.1633316262116543</v>
       </c>
       <c r="T4">
-        <v>0.1002759213737815</v>
+        <v>0.1633316262116543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>15.892693</v>
       </c>
       <c r="I5">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="J5">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N5">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O5">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P5">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q5">
-        <v>97.71268943508969</v>
+        <v>40.55803069202034</v>
       </c>
       <c r="R5">
-        <v>879.4142049158072</v>
+        <v>365.022276228183</v>
       </c>
       <c r="S5">
-        <v>0.1210790126586584</v>
+        <v>0.1047559647401242</v>
       </c>
       <c r="T5">
-        <v>0.1210790126586584</v>
+        <v>0.1047559647401242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>15.892693</v>
       </c>
       <c r="I6">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="J6">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>24.086304</v>
       </c>
       <c r="O6">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P6">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q6">
         <v>42.532914997408</v>
@@ -818,10 +818,10 @@
         <v>382.796234976672</v>
       </c>
       <c r="S6">
-        <v>0.05270393623544498</v>
+        <v>0.1098568265702257</v>
       </c>
       <c r="T6">
-        <v>0.05270393623544498</v>
+        <v>0.1098568265702257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>15.892693</v>
       </c>
       <c r="I7">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="J7">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N7">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O7">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P7">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q7">
-        <v>44.363038059823</v>
+        <v>52.33741750442023</v>
       </c>
       <c r="R7">
-        <v>399.267342538407</v>
+        <v>471.036757539782</v>
       </c>
       <c r="S7">
-        <v>0.05497170201614484</v>
+        <v>0.135180544250658</v>
       </c>
       <c r="T7">
-        <v>0.05497170201614485</v>
+        <v>0.135180544250658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.197232333333334</v>
+        <v>3.446504666666667</v>
       </c>
       <c r="H8">
-        <v>24.591697</v>
+        <v>10.339514</v>
       </c>
       <c r="I8">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305444</v>
       </c>
       <c r="J8">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305443</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N8">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O8">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P8">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q8">
-        <v>151.1965814505337</v>
+        <v>26.38636045839267</v>
       </c>
       <c r="R8">
-        <v>1360.769233054803</v>
+        <v>237.477244125534</v>
       </c>
       <c r="S8">
-        <v>0.1873526653010218</v>
+        <v>0.06815243735054974</v>
       </c>
       <c r="T8">
-        <v>0.1873526653010218</v>
+        <v>0.06815243735054972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.197232333333334</v>
+        <v>3.446504666666667</v>
       </c>
       <c r="H9">
-        <v>24.591697</v>
+        <v>10.339514</v>
       </c>
       <c r="I9">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305444</v>
       </c>
       <c r="J9">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305443</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>24.086304</v>
       </c>
       <c r="O9">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P9">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q9">
-        <v>65.813676646432</v>
+        <v>27.671186379584</v>
       </c>
       <c r="R9">
-        <v>592.323089817888</v>
+        <v>249.040677416256</v>
       </c>
       <c r="S9">
-        <v>0.08155189498780248</v>
+        <v>0.07147097073594898</v>
       </c>
       <c r="T9">
-        <v>0.08155189498780248</v>
+        <v>0.07147097073594896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.197232333333334</v>
+        <v>3.446504666666667</v>
       </c>
       <c r="H10">
-        <v>24.591697</v>
+        <v>10.339514</v>
       </c>
       <c r="I10">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305444</v>
       </c>
       <c r="J10">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305443</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N10">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O10">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P10">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q10">
-        <v>68.645533514467</v>
+        <v>34.04982786811512</v>
       </c>
       <c r="R10">
-        <v>617.809801630203</v>
+        <v>306.448450813036</v>
       </c>
       <c r="S10">
-        <v>0.085060942129526</v>
+        <v>0.08794614794404564</v>
       </c>
       <c r="T10">
-        <v>0.085060942129526</v>
+        <v>0.08794614794404564</v>
       </c>
     </row>
   </sheetData>
